--- a/Documents/Finance/Timesheets/Prakruti Sinha/Prakruti timesheet wk 19 Summer.xlsx
+++ b/Documents/Finance/Timesheets/Prakruti Sinha/Prakruti timesheet wk 19 Summer.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="13440" yWindow="0" windowWidth="14100" windowHeight="15320"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>P.S</t>
+  </si>
+  <si>
+    <t>Ankita Gangotra</t>
+  </si>
+  <si>
+    <t>A.G</t>
   </si>
 </sst>
 </file>
@@ -614,7 +620,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -949,7 +955,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1020,7 +1026,9 @@
         <v>2</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
@@ -1131,7 +1139,7 @@
         <v>41773</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1141,7 +1149,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1188,7 +1196,7 @@
         <v>41776</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1198,7 +1206,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1207,7 +1215,7 @@
         <v>41777</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1217,7 +1225,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1226,7 +1234,7 @@
       </c>
       <c r="B18" s="21">
         <f t="shared" ref="B18:I18" si="2">SUM(B11:B17)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" si="2"/>
@@ -1254,7 +1262,7 @@
       </c>
       <c r="I18" s="15">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1">
@@ -1292,7 +1300,7 @@
       </c>
       <c r="B20" s="6">
         <f t="shared" ref="B20:H20" si="3">B19*B18</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="3"/>
@@ -1320,7 +1328,7 @@
       </c>
       <c r="I20" s="22">
         <f>SUM(B20:H20)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1"/>
@@ -1332,7 +1340,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="13">
         <f>I18</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
@@ -1343,7 +1351,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="13">
         <f>I20</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1"/>
@@ -1370,10 +1378,14 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="33"/>
+      <c r="A27" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="33">
+        <v>41800</v>
+      </c>
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1">
